--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1852887.708359497</v>
+        <v>1957067.342810569</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283206</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.9721579853082</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.530124636146</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>50.18830823574719</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>73.71726063197454</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>128.2538703177676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>39.83117660927029</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1105,22 +1107,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>66.7168605007451</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>157.3652954130578</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>111.591989030694</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>270.6799298994382</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>176.3847659096432</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>9.987743711175053</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>47.84205650382067</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>120.7871326503972</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>13.94435783112433</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>3.453391420151112</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187834</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>75.12653431054493</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631857046</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.4076860934721</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229362</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>122.20592821876</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>93.40444476188276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6324680438220639</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206798</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>34.00490843294684</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189153</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.7428910438474</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>177.1006680594869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>93.07916359105414</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>160.3783204776929</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187817</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>135.3135037226354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922852</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>105.9893107373</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520987</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819443</v>
+        <v>30.40549967255511</v>
       </c>
       <c r="C46" t="n">
-        <v>135.5334195528268</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4331,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X2" t="n">
-        <v>2609.016021139987</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y2" t="n">
-        <v>2218.876689164175</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2351809199101</v>
+        <v>2099.492142500777</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2351809199101</v>
+        <v>1930.555959572871</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>1780.439320160535</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T4" t="n">
-        <v>1595.082945828658</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>1595.082945828658</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="V4" t="n">
-        <v>1595.082945828658</v>
+        <v>2837.691442579286</v>
       </c>
       <c r="W4" t="n">
-        <v>1305.665775791697</v>
+        <v>2548.274272542325</v>
       </c>
       <c r="X4" t="n">
-        <v>1077.67622489368</v>
+        <v>2320.284721644307</v>
       </c>
       <c r="Y4" t="n">
-        <v>856.8836457501499</v>
+        <v>2099.492142500777</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033357</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2715.573417067789</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.476813167026</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C7" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1578.387438490276</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1323.702950284389</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1034.285780247429</v>
       </c>
       <c r="X7" t="n">
-        <v>721.2693923105561</v>
+        <v>806.2962293494114</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.476813167026</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213863</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213863</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4881,52 +4883,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.4537238215122</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1467.611776461086</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1178.50890958673</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1178.50890958673</v>
+        <v>1316.505978529902</v>
       </c>
       <c r="W10" t="n">
-        <v>889.0917395497693</v>
+        <v>1027.088808492942</v>
       </c>
       <c r="X10" t="n">
-        <v>661.1021886517519</v>
+        <v>1027.088808492942</v>
       </c>
       <c r="Y10" t="n">
-        <v>661.1021886517519</v>
+        <v>806.2962293494114</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,10 +5056,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5121,7 +5123,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5130,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>365.940507157679</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453428</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>215.8238677453428</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>215.8238677453428</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>867.8220324314351</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1465.200520057987</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612594</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.514925172274</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3173.601046153954</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153954</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741619</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159226</v>
+        <v>398.6787020904383</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661315</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376195</v>
+        <v>251.7887545925279</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218393</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650993</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305897</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328838</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673036</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.57143446715</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430189</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430189</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>3173.601046153954</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.388077746847</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L24" t="n">
-        <v>577.388077746847</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187003</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356244</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356244</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232886</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408955</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2323.522752046159</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2103.9212870691</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1814.846060413298</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.161572207411</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207411</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309394</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165864</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803936</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961522</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578601</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300424</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>3210.485548300424</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336243</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.30868757553</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.278523222742</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
@@ -6713,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>94.56320294380356</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>244.2098454714582</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714582</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872168</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788938</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861031</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448695</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866302</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866302</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866302</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866302</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4670.716426881529</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.861592536433</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559374</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903572</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697686</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660725</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762708</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619178</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7096,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2058.30734919087</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.987318831765</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687975</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>334.7259677085632</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>187.8360202106528</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>982.2858920990373</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990373</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.77602655187</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611458</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004708</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406464</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168561</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192309</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075776</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014775</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355933</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474779</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615992</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756264</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756264</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021781</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996071</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.972636491139</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379233002</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443409071</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429967</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7564,16 +7566,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2272.857469997006</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.782243341204</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135317</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135317</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.1082042373</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7637,49 +7639,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7719,22 +7721,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021781</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951538</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.5467179762874</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C46" t="n">
         <v>847.644273983533</v>
@@ -7798,19 +7800,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1166.195182806534</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>97.57899151911057</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.50758019582665</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.6402955209705</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>176.3785887617862</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>65.16817853567896</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.176967258622682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>147.3599015160452</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>58.8203577828846</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>55.2110282563296</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>180.3938179578225</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823017</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>13.66255928344088</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>47.21554925516975</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>65.33133491134421</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>13.30196929557692</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>111.4161395899883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>149.4264805093822</v>
       </c>
       <c r="C46" t="n">
-        <v>31.71340154580105</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047771</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047772</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,22 +26435,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685519</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26506,7 +26508,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955353.2342321937</v>
+        <v>-955353.2342321938</v>
       </c>
       <c r="C6" t="n">
-        <v>373391.5114953988</v>
+        <v>373391.5114953989</v>
       </c>
       <c r="D6" t="n">
-        <v>373391.5114953988</v>
+        <v>373391.5114953991</v>
       </c>
       <c r="E6" t="n">
         <v>124250.876074887</v>
       </c>
       <c r="F6" t="n">
+        <v>449663.3378822426</v>
+      </c>
+      <c r="G6" t="n">
+        <v>449663.3378822425</v>
+      </c>
+      <c r="H6" t="n">
         <v>449663.3378822421</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
+        <v>449663.337882242</v>
+      </c>
+      <c r="J6" t="n">
+        <v>232132.1354849648</v>
+      </c>
+      <c r="K6" t="n">
+        <v>449663.337882242</v>
+      </c>
+      <c r="L6" t="n">
+        <v>449663.3378822422</v>
+      </c>
+      <c r="M6" t="n">
+        <v>364608.3099467305</v>
+      </c>
+      <c r="N6" t="n">
+        <v>449663.3378822421</v>
+      </c>
+      <c r="O6" t="n">
         <v>449663.3378822423</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>449663.3378822424</v>
-      </c>
-      <c r="I6" t="n">
-        <v>449663.3378822422</v>
-      </c>
-      <c r="J6" t="n">
-        <v>232132.1354849646</v>
-      </c>
-      <c r="K6" t="n">
-        <v>449663.3378822424</v>
-      </c>
-      <c r="L6" t="n">
-        <v>449663.3378822423</v>
-      </c>
-      <c r="M6" t="n">
-        <v>364608.3099467302</v>
-      </c>
-      <c r="N6" t="n">
-        <v>449663.3378822423</v>
-      </c>
-      <c r="O6" t="n">
-        <v>449663.3378822425</v>
-      </c>
-      <c r="P6" t="n">
-        <v>449663.3378822422</v>
       </c>
     </row>
   </sheetData>
@@ -26790,7 +26792,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.7616836781723</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.20097604232308</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>169.360641040422</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>178.4203826918535</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>226.4291713029153</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>287.9210818608646</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>219.4949777048678</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>68.34435997597939</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>253.6809027403136</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>84.00311172124475</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28019,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>43.164183366526</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>242.1498996126529</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29512,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29812,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30183,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30457,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30684,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-2.584460300934504e-12</v>
       </c>
     </row>
     <row r="44">
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575231</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>289.7537444526271</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32315,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194872</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>481.4297026814662</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>344.9857809048123</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6279838366857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>100.2764607028603</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M36" t="n">
-        <v>538.585383513313</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162578</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>230.9747494877451</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491751</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067204</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491755</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34444,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857166</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34472,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167418976</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>151.9123054782681</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334657</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>339.2956687594478</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0040068187907</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>237.2862717533524</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7540807028603486</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M36" t="n">
-        <v>396.4513495912947</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066204</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462705</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315352</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.53969023631445</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315398</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>508.5100553023833</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1957067.342810569</v>
+        <v>1953054.732796578</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>346.530124636146</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>9.152727013336042</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>125.1544374178905</v>
       </c>
       <c r="V4" t="n">
-        <v>73.71726063197454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>276.1798220258308</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>39.83117660927029</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>66.7168605007451</v>
+        <v>115.7901704122346</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>270.6799298994382</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>100.5205878903137</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>31.95340287568538</v>
       </c>
       <c r="V10" t="n">
-        <v>9.987743711175053</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>47.84205650382067</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>166.0986152489611</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>18.4960568543865</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.94435783112433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.453391420151112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>126.58167374978</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>75.12653431054493</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>19.88691958258267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>40.6225301034174</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>285.5970594671156</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>114.2821160880066</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>205.5383435306682</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>34.00490843294684</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369472</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>203.7428910438474</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>93.07916359105414</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>105.9893107373</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.40549967255511</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>70.04554881124375</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649821</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986309</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2099.492142500777</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C4" t="n">
-        <v>1930.555959572871</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D4" t="n">
-        <v>1780.439320160535</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>1632.526226578142</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578142</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.153322005523</v>
+        <v>1800.875924434057</v>
       </c>
       <c r="V4" t="n">
-        <v>2837.691442579286</v>
+        <v>1546.19143622817</v>
       </c>
       <c r="W4" t="n">
-        <v>2548.274272542325</v>
+        <v>1256.77426619121</v>
       </c>
       <c r="X4" t="n">
-        <v>2320.284721644307</v>
+        <v>1028.784715293192</v>
       </c>
       <c r="Y4" t="n">
-        <v>2099.492142500777</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2255.174438931362</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V5" t="n">
-        <v>2715.573417067789</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W5" t="n">
-        <v>2362.804761797675</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>2641.774278995484</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4758,19 +4758,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1578.387438490276</v>
+        <v>1528.81843857968</v>
       </c>
       <c r="V7" t="n">
-        <v>1323.702950284389</v>
+        <v>1274.133950373793</v>
       </c>
       <c r="W7" t="n">
-        <v>1034.285780247429</v>
+        <v>1274.133950373793</v>
       </c>
       <c r="X7" t="n">
-        <v>806.2962293494114</v>
+        <v>1046.144399475776</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.2962293494114</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1891.353293732296</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1891.353293732296</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1006.81911994452</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>621.0308673462755</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>210.0449625566679</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,16 +4816,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796418</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="V10" t="n">
-        <v>1316.505978529902</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W10" t="n">
-        <v>1027.088808492942</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X10" t="n">
-        <v>1027.088808492942</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y10" t="n">
-        <v>806.2962293494114</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>365.940507157679</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408905</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.280197868759</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1412.248478625013</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>996.5276398439761</v>
       </c>
       <c r="C22" t="n">
-        <v>696.7084350851671</v>
+        <v>827.5914569160692</v>
       </c>
       <c r="D22" t="n">
-        <v>546.5917956728314</v>
+        <v>677.4748175037334</v>
       </c>
       <c r="E22" t="n">
-        <v>398.6787020904383</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>251.7887545925279</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>251.7887545925279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="23">
@@ -5977,28 +5977,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1936.428221820188</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>376.4492432300683</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>986.1256051221279</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>817.189422194221</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>667.0727827818853</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>519.1596891994922</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429802</v>
@@ -6855,55 +6855,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W34" t="n">
-        <v>1616.556199993915</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>1388.566649095898</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y34" t="n">
-        <v>1167.774069952368</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580256</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.10824923516</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2058.30734919087</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1769.232122535068</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,13 +7265,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085632</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>187.8360202106528</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>187.8360202106528</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,22 +7405,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7429,34 +7429,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2272.857469997006</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1983.782243341204</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135317</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.1082042373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.644273983533</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-6.484172506488291e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-2.50513318623173e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>97.57899151911057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>51.30683507832717</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.87918985573519</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.6402955209705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.3785887617862</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>19.85228889678918</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>65.16817853567896</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>147.3599015160452</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>245.5619442858267</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.9259388694753738</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.15184655856257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>80.64613085857593</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>40.64330621514762</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>13.66255928344088</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>47.21554925516975</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>111.4161395899883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.4264805093822</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.359841684869025e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820645</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26432,10 +26432,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26444,10 +26444,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685497</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-955353.2342321938</v>
       </c>
       <c r="C6" t="n">
-        <v>373391.5114953989</v>
+        <v>373391.5114953988</v>
       </c>
       <c r="D6" t="n">
-        <v>373391.5114953991</v>
+        <v>373391.5114953987</v>
       </c>
       <c r="E6" t="n">
-        <v>124250.876074887</v>
+        <v>123903.4968205303</v>
       </c>
       <c r="F6" t="n">
-        <v>449663.3378822426</v>
+        <v>449315.9586278856</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822425</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822421</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.337882242</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="J6" t="n">
-        <v>232132.1354849648</v>
+        <v>231784.7562306079</v>
       </c>
       <c r="K6" t="n">
-        <v>449663.337882242</v>
+        <v>449315.9586278856</v>
       </c>
       <c r="L6" t="n">
-        <v>449663.3378822422</v>
+        <v>449315.9586278857</v>
       </c>
       <c r="M6" t="n">
-        <v>364608.3099467305</v>
+        <v>364260.9306923736</v>
       </c>
       <c r="N6" t="n">
-        <v>449663.3378822421</v>
+        <v>449315.9586278854</v>
       </c>
       <c r="O6" t="n">
-        <v>449663.3378822423</v>
+        <v>449315.9586278853</v>
       </c>
       <c r="P6" t="n">
-        <v>449663.3378822424</v>
+        <v>449315.9586278855</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>23.20097604232308</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>377.0852116427175</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>161.0574007877223</v>
       </c>
       <c r="V4" t="n">
-        <v>178.4203826918535</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.09306974517671</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>287.9210818608646</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>219.4949777048678</v>
+        <v>170.4216677933782</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>84.00311172124475</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>310.4011377631397</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>254.2584353299275</v>
       </c>
       <c r="V10" t="n">
-        <v>242.1498996126529</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30686,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-2.584460300934504e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>538.1718564803244</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>576.057346513631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>406.8301443969911</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>328.5921438716506</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>57.74979223202579</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>433.4611020691866</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953054.732796578</v>
+        <v>1954815.263099362</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886399</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.152727013336042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>125.1544374178905</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>65.29024472877059</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1798220258308</v>
+        <v>166.9920602376571</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>62.95433966001204</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>115.7901704122346</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>100.5205878903137</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814396</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>71.98153210089602</v>
       </c>
       <c r="U10" t="n">
-        <v>31.95340287568538</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>166.0986152489611</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.4960568543865</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>126.441804108316</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>126.58167374978</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>82.85993176807962</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>285.5970594671156</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>205.5383435306682</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.9413471369472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>70.04554881124375</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080135</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986309</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>626.3436713194226</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1800.875924434057</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1546.19143622817</v>
+        <v>1861.344805938219</v>
       </c>
       <c r="W4" t="n">
-        <v>1256.77426619121</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="X4" t="n">
-        <v>1028.784715293192</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.9921361496623</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.174438931362</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265598</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995484</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995484</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2641.774278995484</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>742.724875630924</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>742.724875630924</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>592.6082362185882</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>444.6951426361951</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>297.8051951382847</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>130.1023585130037</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>130.1023585130037</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1528.81843857968</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1274.133950373793</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W7" t="n">
-        <v>1274.133950373793</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.144399475776</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.08481855127</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.81911994452</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>621.0308673462755</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566679</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4950,31 +4950,31 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1854.58592980476</v>
       </c>
       <c r="U10" t="n">
-        <v>1673.251768137125</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V10" t="n">
-        <v>1418.567279931238</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W10" t="n">
-        <v>1129.150109894277</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>901.1605589962596</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.3679798527295</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253734</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2096.33187019581</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1807.256643540008</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.572155334121</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1263.15498529716</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.165434399143</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.3728552556131</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,31 +5290,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532263</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.280197868759</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.425363523663</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.425363523663</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.350136867861</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625013</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.466348583466</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5664,13 +5664,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273903</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>996.5276398439761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>827.5914569160692</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>677.4748175037334</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.043910473548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.054359575531</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7657,7 +7657,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>853.594109445026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326902</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502971</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-6.484172506488291e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-2.50513318623173e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>51.30683507832717</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.87918985573519</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>99.26785128072119</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>19.85228889678918</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9259388694753738</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>80.64613085857593</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="32">
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.64330621514762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>75.3754992116875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830046</v>
@@ -26331,25 +26331,25 @@
         <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26432,10 +26432,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26444,10 +26444,10 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-955353.2342321938</v>
       </c>
       <c r="C6" t="n">
-        <v>373391.5114953988</v>
+        <v>373391.5114953992</v>
       </c>
       <c r="D6" t="n">
         <v>373391.5114953987</v>
       </c>
       <c r="E6" t="n">
-        <v>123903.4968205303</v>
+        <v>124216.1381494514</v>
       </c>
       <c r="F6" t="n">
-        <v>449315.9586278856</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="G6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568069</v>
       </c>
       <c r="H6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="I6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568064</v>
       </c>
       <c r="J6" t="n">
-        <v>231784.7562306079</v>
+        <v>232097.3975595291</v>
       </c>
       <c r="K6" t="n">
-        <v>449315.9586278856</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="L6" t="n">
-        <v>449315.9586278857</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="M6" t="n">
-        <v>364260.9306923736</v>
+        <v>364573.5720212947</v>
       </c>
       <c r="N6" t="n">
-        <v>449315.9586278854</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="O6" t="n">
-        <v>449315.9586278853</v>
+        <v>449628.5999568065</v>
       </c>
       <c r="P6" t="n">
-        <v>449315.9586278855</v>
+        <v>449628.5999568066</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.0350347748407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0852116427175</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>161.0574007877223</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>186.8473985950574</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>89.09306974517671</v>
+        <v>198.2808315333504</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>33.39808074982605</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>170.4216677933782</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>310.4011377631397</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803251</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>147.5674171752732</v>
       </c>
       <c r="U10" t="n">
-        <v>254.2584353299275</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38028,7 +38028,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
